--- a/pontinho2/outputs/gramatica/bruto/program.xlsx
+++ b/pontinho2/outputs/gramatica/bruto/program.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>"begin"</t>
   </si>
@@ -72,6 +72,153 @@
   </si>
   <si>
     <t>ε</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>5,31</t>
+  </si>
+  <si>
+    <t>6,32</t>
+  </si>
+  <si>
+    <t>7,33</t>
+  </si>
+  <si>
+    <t>8,34</t>
+  </si>
+  <si>
+    <t>9,35</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>46,72</t>
+  </si>
+  <si>
+    <t>47,73</t>
+  </si>
+  <si>
+    <t>48,74</t>
+  </si>
+  <si>
+    <t>49,75</t>
+  </si>
+  <si>
+    <t>50,76</t>
+  </si>
+  <si>
+    <t>51,77</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>56,57</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>64,65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
   </si>
 </sst>
 </file>
@@ -189,31 +336,31 @@
       <c r="A2" s="0">
         <v>0</v>
       </c>
-      <c r="B2" s="0">
-        <v>1</v>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="C3" s="0">
-        <v>30</v>
-      </c>
-      <c r="D3" s="0">
-        <v>31</v>
-      </c>
-      <c r="E3" s="0">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0">
-        <v>33</v>
-      </c>
-      <c r="G3" s="0">
-        <v>34</v>
-      </c>
-      <c r="H3" s="0">
-        <v>35</v>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -228,8 +375,8 @@
       <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="I5" s="0">
-        <v>11</v>
+      <c r="I5" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="U5" s="0">
         <v>10</v>
@@ -287,16 +434,16 @@
       <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="K12" s="0">
-        <v>15</v>
+      <c r="K12" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>11</v>
       </c>
-      <c r="J13" s="0">
-        <v>12</v>
+      <c r="J13" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -327,24 +474,24 @@
       <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="I17" s="0">
-        <v>16</v>
+      <c r="I17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
         <v>16</v>
       </c>
-      <c r="L18" s="0">
-        <v>17</v>
+      <c r="L18" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>17</v>
       </c>
-      <c r="J19" s="0">
-        <v>18</v>
+      <c r="J19" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -359,19 +506,19 @@
       <c r="A21" s="0">
         <v>19</v>
       </c>
-      <c r="M21" s="0">
-        <v>20</v>
-      </c>
-      <c r="N21" s="0">
-        <v>27</v>
+      <c r="M21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>20</v>
       </c>
-      <c r="K22" s="0">
-        <v>23</v>
+      <c r="K22" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="U22" s="0">
         <v>18</v>
@@ -394,24 +541,24 @@
       <c r="A25" s="0">
         <v>23</v>
       </c>
-      <c r="I25" s="0">
-        <v>24</v>
+      <c r="I25" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>24</v>
       </c>
-      <c r="L26" s="0">
-        <v>25</v>
+      <c r="L26" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>25</v>
       </c>
-      <c r="J27" s="0">
-        <v>26</v>
+      <c r="J27" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -439,8 +586,8 @@
       <c r="A31" s="0">
         <v>29</v>
       </c>
-      <c r="O31" s="0">
-        <v>36</v>
+      <c r="O31" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -495,16 +642,16 @@
       <c r="A38" s="0">
         <v>36</v>
       </c>
-      <c r="P38" s="0">
-        <v>37</v>
+      <c r="P38" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>37</v>
       </c>
-      <c r="Q39" s="0">
-        <v>39</v>
+      <c r="Q39" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="U39" s="0">
         <v>38</v>
@@ -514,8 +661,8 @@
       <c r="A40" s="0">
         <v>38</v>
       </c>
-      <c r="R40" s="0">
-        <v>40</v>
+      <c r="R40" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -530,8 +677,8 @@
       <c r="A42" s="0">
         <v>40</v>
       </c>
-      <c r="S42" s="0">
-        <v>41</v>
+      <c r="S42" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -546,34 +693,34 @@
       <c r="A44" s="0">
         <v>42</v>
       </c>
-      <c r="N44" s="0">
-        <v>43</v>
-      </c>
-      <c r="T44" s="0">
-        <v>84</v>
+      <c r="N44" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
         <v>43</v>
       </c>
-      <c r="C45" s="0">
-        <v>72</v>
-      </c>
-      <c r="D45" s="0">
-        <v>73</v>
-      </c>
-      <c r="E45" s="0">
-        <v>74</v>
-      </c>
-      <c r="F45" s="0">
-        <v>75</v>
-      </c>
-      <c r="G45" s="0">
-        <v>76</v>
-      </c>
-      <c r="H45" s="0">
-        <v>77</v>
+      <c r="C45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="U45" s="0">
         <v>41</v>
@@ -588,8 +735,8 @@
       <c r="A47" s="0">
         <v>45</v>
       </c>
-      <c r="I47" s="0">
-        <v>53</v>
+      <c r="I47" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="U47" s="0">
         <v>52</v>
@@ -647,15 +794,15 @@
       <c r="A54" s="0">
         <v>52</v>
       </c>
-      <c r="K54" s="0">
-        <v>57</v>
+      <c r="K54" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
         <v>53</v>
       </c>
-      <c r="J55" s="0">
+      <c r="J55" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -687,24 +834,24 @@
       <c r="A59" s="0">
         <v>57</v>
       </c>
-      <c r="I59" s="0">
-        <v>58</v>
+      <c r="I59" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
         <v>58</v>
       </c>
-      <c r="L60" s="0">
-        <v>59</v>
+      <c r="L60" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
         <v>59</v>
       </c>
-      <c r="J61" s="0">
-        <v>60</v>
+      <c r="J61" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -719,19 +866,19 @@
       <c r="A63" s="0">
         <v>61</v>
       </c>
-      <c r="M63" s="0">
-        <v>62</v>
-      </c>
-      <c r="N63" s="0">
-        <v>69</v>
+      <c r="M63" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
         <v>62</v>
       </c>
-      <c r="K64" s="0">
-        <v>65</v>
+      <c r="K64" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="U64" s="0">
         <v>60</v>
@@ -754,24 +901,24 @@
       <c r="A67" s="0">
         <v>65</v>
       </c>
-      <c r="I67" s="0">
-        <v>66</v>
+      <c r="I67" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>66</v>
       </c>
-      <c r="L68" s="0">
-        <v>67</v>
+      <c r="L68" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
         <v>67</v>
       </c>
-      <c r="J69" s="0">
-        <v>68</v>
+      <c r="J69" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70">
@@ -799,8 +946,8 @@
       <c r="A73" s="0">
         <v>71</v>
       </c>
-      <c r="O73" s="0">
-        <v>78</v>
+      <c r="O73" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="74">
@@ -855,16 +1002,16 @@
       <c r="A80" s="0">
         <v>78</v>
       </c>
-      <c r="P80" s="0">
-        <v>79</v>
+      <c r="P80" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
         <v>79</v>
       </c>
-      <c r="Q81" s="0">
-        <v>81</v>
+      <c r="Q81" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="U81" s="0">
         <v>80</v>
@@ -874,8 +1021,8 @@
       <c r="A82" s="0">
         <v>80</v>
       </c>
-      <c r="R82" s="0">
-        <v>82</v>
+      <c r="R82" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="83">
@@ -890,8 +1037,8 @@
       <c r="A84" s="0">
         <v>82</v>
       </c>
-      <c r="S84" s="0">
-        <v>83</v>
+      <c r="S84" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="85">
